--- a/01_Initial_Glider_Design/results/Nausicaa_v_5_1/nausicaa_rollin_timeseries.xlsx
+++ b/01_Initial_Glider_Design/results/Nausicaa_v_5_1/nausicaa_rollin_timeseries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,1059 +486,2619 @@
         <v>2.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6365974753544631</v>
+        <v>-0.7089637960117735</v>
       </c>
       <c r="E2" t="n">
-        <v>-36.47434858649417</v>
+        <v>-40.62063333904845</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.757906641679355e-40</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.486784261149289e-24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.08406817239143542</v>
+        <v>0.04956629328400594</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3507666954795851</v>
+        <v>0.1934203347733039</v>
       </c>
       <c r="C3" t="n">
-        <v>2.240689242691844</v>
+        <v>2.334097861120812</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6365974753544631</v>
+        <v>-0.7089637960117735</v>
       </c>
       <c r="E3" t="n">
-        <v>-36.47434858649417</v>
+        <v>-40.62063333904845</v>
       </c>
       <c r="F3" t="n">
-        <v>4.679200547203037e-32</v>
+        <v>4.702314515742088e-24</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.757906641679355e-40</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.646291713243732</v>
+        <v>3.86753462278396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1681363447828708</v>
+        <v>0.09913258656801188</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7015333909591702</v>
+        <v>0.3868406695466079</v>
       </c>
       <c r="C4" t="n">
-        <v>1.981378485383688</v>
+        <v>2.168195722241623</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6365974753544631</v>
+        <v>-0.7089637960117735</v>
       </c>
       <c r="E4" t="n">
-        <v>-36.47434858649417</v>
+        <v>-40.62063333904845</v>
       </c>
       <c r="F4" t="n">
-        <v>2.076364045088156</v>
+        <v>1.253467869679343</v>
       </c>
       <c r="G4" t="n">
-        <v>2.136060707041139e-31</v>
+        <v>3.308722458951822e-24</v>
       </c>
       <c r="H4" t="n">
-        <v>11.73035048357136</v>
+        <v>7.360375154409597</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2522045171743063</v>
+        <v>0.1486988798520178</v>
       </c>
       <c r="B5" t="n">
-        <v>1.052300086438755</v>
+        <v>0.5802610043199118</v>
       </c>
       <c r="C5" t="n">
-        <v>1.722067728075532</v>
+        <v>2.002293583362435</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6365974753544631</v>
+        <v>-0.7089637960117735</v>
       </c>
       <c r="E5" t="n">
-        <v>-36.47434858649417</v>
+        <v>-40.62063333904845</v>
       </c>
       <c r="F5" t="n">
-        <v>1.811680348786237</v>
+        <v>1.199423758444527</v>
       </c>
       <c r="G5" t="n">
-        <v>10.00132956520324</v>
+        <v>3.559772803877036</v>
       </c>
       <c r="H5" t="n">
-        <v>10.39655466735472</v>
+        <v>7.709960771235309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3362726895657417</v>
+        <v>0.1982651731360238</v>
       </c>
       <c r="B6" t="n">
-        <v>1.40306678191834</v>
+        <v>0.7736813390932157</v>
       </c>
       <c r="C6" t="n">
-        <v>1.462756970767376</v>
+        <v>1.836391444483247</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6085680563013176</v>
+        <v>-0.703079945756346</v>
       </c>
       <c r="E6" t="n">
-        <v>-34.86838117254536</v>
+        <v>-40.28351355212548</v>
       </c>
       <c r="F6" t="n">
-        <v>1.672717360302327</v>
+        <v>1.363862811138331</v>
       </c>
       <c r="G6" t="n">
-        <v>18.727743547316</v>
+        <v>6.966063606310647</v>
       </c>
       <c r="H6" t="n">
-        <v>9.264582632067933</v>
+        <v>8.065719829530968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4203408619571771</v>
+        <v>0.2478314664200297</v>
       </c>
       <c r="B7" t="n">
-        <v>1.760963074977936</v>
+        <v>0.9680744635097264</v>
       </c>
       <c r="C7" t="n">
-        <v>1.213378569682604</v>
+        <v>1.671630227056045</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5546836459170484</v>
+        <v>-0.6915237533998942</v>
       </c>
       <c r="E7" t="n">
-        <v>-31.78103187597583</v>
+        <v>-39.62139250285945</v>
       </c>
       <c r="F7" t="n">
-        <v>1.353925056555553</v>
+        <v>1.323566526786151</v>
       </c>
       <c r="G7" t="n">
-        <v>26.78480735045563</v>
+        <v>10.83935135524314</v>
       </c>
       <c r="H7" t="n">
-        <v>7.405685180270685</v>
+        <v>7.917527476302659</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5044090343486125</v>
+        <v>0.2973977597040356</v>
       </c>
       <c r="B8" t="n">
-        <v>2.1317710187886</v>
+        <v>1.164358577842259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.983637819443764</v>
+        <v>1.509126405411139</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4744495771532463</v>
+        <v>-0.6734141829306314</v>
       </c>
       <c r="E8" t="n">
-        <v>-27.18395836264754</v>
+        <v>-38.58379054617594</v>
       </c>
       <c r="F8" t="n">
-        <v>1.042805026878303</v>
+        <v>1.313667094310334</v>
       </c>
       <c r="G8" t="n">
-        <v>33.3063278560872</v>
+        <v>14.59820009811568</v>
       </c>
       <c r="H8" t="n">
-        <v>5.661227857778865</v>
+        <v>7.735359493283328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.588477206740048</v>
+        <v>0.3469640529880416</v>
       </c>
       <c r="B9" t="n">
-        <v>2.519799327992663</v>
+        <v>1.363553220281097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.784355670796084</v>
+        <v>1.350203656843887</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3700196150180038</v>
+        <v>-0.6487809214293762</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.20056227758715</v>
+        <v>-37.17240862651192</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7788644666763664</v>
+        <v>1.26399363317258</v>
       </c>
       <c r="G9" t="n">
-        <v>38.32926050160876</v>
+        <v>18.32893505255082</v>
       </c>
       <c r="H9" t="n">
-        <v>4.221347413333417</v>
+        <v>7.422646676215789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6725453791314834</v>
+        <v>0.3965303462720475</v>
       </c>
       <c r="B10" t="n">
-        <v>2.926486936994905</v>
+        <v>1.566601820085397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6266073516372382</v>
+        <v>1.196235440298979</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2443635953157918</v>
+        <v>-0.617448338888742</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.00100267823768</v>
+        <v>-35.37718388568829</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5777497639789592</v>
+        <v>1.20964612408786</v>
       </c>
       <c r="G10" t="n">
-        <v>42.08085706594142</v>
+        <v>21.9186003870061</v>
       </c>
       <c r="H10" t="n">
-        <v>3.140181303174453</v>
+        <v>7.05127319495557</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7566135515229188</v>
+        <v>0.4460966395560535</v>
       </c>
       <c r="B11" t="n">
-        <v>3.349737988472612</v>
+        <v>1.77437419106303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.521071144881372</v>
+        <v>1.048703791332259</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1008456602543449</v>
+        <v>-0.5793914590462271</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.778030714784154</v>
+        <v>-33.1966852892757</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4336056976498263</v>
+        <v>1.140709437318284</v>
       </c>
       <c r="G11" t="n">
-        <v>44.8637340905369</v>
+        <v>25.35392208850672</v>
       </c>
       <c r="H11" t="n">
-        <v>2.368377023729239</v>
+        <v>6.610831963870993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8406817239143543</v>
+        <v>0.4956629328400594</v>
       </c>
       <c r="B12" t="n">
-        <v>3.783731977725887</v>
+        <v>1.987609358167229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4771557625486536</v>
+        <v>0.9091842260428307</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05734128310489236</v>
+        <v>-0.5345744046795674</v>
       </c>
       <c r="E12" t="n">
-        <v>3.285413513775145</v>
+        <v>-30.62885722385774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3320564982151755</v>
+        <v>1.063192667338411</v>
       </c>
       <c r="G12" t="n">
-        <v>46.95230497183515</v>
+        <v>28.59346777636727</v>
       </c>
       <c r="H12" t="n">
-        <v>1.823388685425337</v>
+        <v>6.120888077166702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9247498963057896</v>
+        <v>0.5452292261240653</v>
       </c>
       <c r="B13" t="n">
-        <v>4.219225245311218</v>
+        <v>2.206881175346447</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5021549105591591</v>
+        <v>0.7793581278212871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2275006116265102</v>
+        <v>-0.4830213054386349</v>
       </c>
       <c r="E13" t="n">
-        <v>13.0348248828439</v>
+        <v>-27.67508221653322</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2598013220096755</v>
+        <v>0.977750852509303</v>
       </c>
       <c r="G13" t="n">
-        <v>48.5517385975394</v>
+        <v>31.61287053412676</v>
       </c>
       <c r="H13" t="n">
-        <v>1.435612585459536</v>
+        <v>5.593079460642279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.008818068697225</v>
+        <v>0.5947955194080713</v>
       </c>
       <c r="B14" t="n">
-        <v>4.644195691324589</v>
+        <v>2.432551648741744</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6005391751983573</v>
+        <v>0.661003647441162</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4074781427530437</v>
+        <v>-0.4248055623773822</v>
       </c>
       <c r="E14" t="n">
-        <v>23.34677782357868</v>
+        <v>-24.33956583790543</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2083889900148791</v>
+        <v>0.8875360248549682</v>
       </c>
       <c r="G14" t="n">
-        <v>49.80313699708351</v>
+        <v>34.38962371458167</v>
       </c>
       <c r="H14" t="n">
-        <v>1.158778367618777</v>
+        <v>5.045413021131274</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.09288624108866</v>
+        <v>0.6443618126920773</v>
       </c>
       <c r="B15" t="n">
-        <v>5.044690375576729</v>
+        <v>2.664726026141483</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7734071924808383</v>
+        <v>0.5559798212513392</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5955805040835859</v>
+        <v>-0.3600699424313504</v>
       </c>
       <c r="E15" t="n">
-        <v>34.12424924426356</v>
+        <v>-20.6304880308349</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1712851685146524</v>
+        <v>0.7954016632421548</v>
       </c>
       <c r="G15" t="n">
-        <v>50.80689497094602</v>
+        <v>36.91017225049911</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9587107947023533</v>
+        <v>4.495646129086836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.176954413480096</v>
+        <v>0.6939281059760831</v>
       </c>
       <c r="B16" t="n">
-        <v>5.405795208666138</v>
+        <v>2.903208121654478</v>
       </c>
       <c r="C16" t="n">
-        <v>1.018116495599596</v>
+        <v>0.4661954367057074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.790509517879648</v>
+        <v>-0.2890304619393643</v>
       </c>
       <c r="E16" t="n">
-        <v>45.29285903942532</v>
+        <v>-16.56022561984215</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1443489176087601</v>
+        <v>0.7044028728847008</v>
       </c>
       <c r="G16" t="n">
-        <v>51.63193305807667</v>
+        <v>39.16906478173908</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8133113451223866</v>
+        <v>3.960934077347233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.261022585871531</v>
+        <v>0.7434943992600891</v>
       </c>
       <c r="B17" t="n">
-        <v>5.712661797790918</v>
+        <v>3.147461580041647</v>
       </c>
       <c r="C17" t="n">
-        <v>1.328136236894114</v>
+        <v>0.3935649083143029</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9912731204949622</v>
+        <v>-0.2119772991042055</v>
       </c>
       <c r="E17" t="n">
-        <v>56.79576614912444</v>
+        <v>-12.14540459125326</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1247049255261246</v>
+        <v>0.6172088399974623</v>
       </c>
       <c r="G17" t="n">
-        <v>52.32722591907606</v>
+        <v>41.16952626186401</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7072514948150516</v>
+        <v>3.455585884852321</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.345090758262967</v>
+        <v>0.7930606925440951</v>
       </c>
       <c r="B18" t="n">
-        <v>5.951541435387076</v>
+        <v>3.396581183271865</v>
       </c>
       <c r="C18" t="n">
-        <v>1.693123719221009</v>
+        <v>0.3399517674351644</v>
       </c>
       <c r="D18" t="n">
-        <v>1.197121044303488</v>
+        <v>-0.1292669465334493</v>
       </c>
       <c r="E18" t="n">
-        <v>68.5899834048835</v>
+        <v>-7.406450466909913</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1103657115855362</v>
+        <v>0.535931443091322</v>
       </c>
       <c r="G18" t="n">
-        <v>52.92789855234636</v>
+        <v>42.92236197156394</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6297943461749955</v>
+        <v>2.990263561365839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.429158930654402</v>
+        <v>0.842626985828101</v>
       </c>
       <c r="B19" t="n">
-        <v>6.110775411833027</v>
+        <v>3.649278465863199</v>
       </c>
       <c r="C19" t="n">
-        <v>2.099231936644158</v>
+        <v>0.3071031912184817</v>
       </c>
       <c r="D19" t="n">
-        <v>1.407491772441435</v>
+        <v>-0.04130829584132908</v>
       </c>
       <c r="E19" t="n">
-        <v>80.64333826028188</v>
+        <v>-2.366791010585967</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09987692221291945</v>
+        <v>0.4620279084722547</v>
       </c>
       <c r="G19" t="n">
-        <v>53.45950275579818</v>
+        <v>44.44437479854378</v>
       </c>
       <c r="H19" t="n">
-        <v>0.573888786582967</v>
+        <v>2.571809584986195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.513227103045838</v>
+        <v>0.892193279112107</v>
       </c>
       <c r="B20" t="n">
-        <v>6.181694326176506</v>
+        <v>3.903884446175173</v>
       </c>
       <c r="C20" t="n">
-        <v>2.529638548003394</v>
+        <v>0.2965798657988851</v>
       </c>
       <c r="D20" t="n">
-        <v>1.62197121994673</v>
+        <v>0.05145560249228374</v>
       </c>
       <c r="E20" t="n">
-        <v>92.93210539463298</v>
+        <v>2.948188855110698</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09263312054080702</v>
+        <v>0.3963370063618229</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94058506762716</v>
+        <v>45.75650606492594</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5356239484679043</v>
+        <v>2.203547947186328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.597295275437273</v>
+        <v>0.9417595723961129</v>
       </c>
       <c r="B21" t="n">
-        <v>6.159381057744182</v>
+        <v>4.158370536909199</v>
       </c>
       <c r="C21" t="n">
-        <v>2.965277689455657</v>
+        <v>0.3096861700613963</v>
       </c>
       <c r="D21" t="n">
-        <v>1.840258589495294</v>
+        <v>0.1485674950129974</v>
       </c>
       <c r="E21" t="n">
-        <v>105.4390503907782</v>
+        <v>8.512290437075656</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08782675057895657</v>
+        <v>0.339142369594912</v>
       </c>
       <c r="G21" t="n">
-        <v>54.38677578710789</v>
+        <v>46.88207914944208</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5110253570415106</v>
+        <v>1.885676487217192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.681363447828709</v>
+        <v>0.9913258656801188</v>
       </c>
       <c r="B22" t="n">
-        <v>6.043256168068059</v>
+        <v>4.410386798504428</v>
       </c>
       <c r="C22" t="n">
-        <v>3.385746895832423</v>
+        <v>0.3474055215944604</v>
       </c>
       <c r="D22" t="n">
-        <v>2.062157040802422</v>
+        <v>0.2495753209002088</v>
       </c>
       <c r="E22" t="n">
-        <v>118.1528951311659</v>
+        <v>14.29961255820513</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0850879114028766</v>
+        <v>0.2902397348991204</v>
       </c>
       <c r="G22" t="n">
-        <v>54.80981541701237</v>
+        <v>47.84522293088997</v>
       </c>
       <c r="H22" t="n">
-        <v>0.498301765419382</v>
+        <v>1.615767076507277</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.765431620220144</v>
+        <v>1.040892158964125</v>
       </c>
       <c r="B23" t="n">
-        <v>5.83744082767751</v>
+        <v>4.6573150701811</v>
       </c>
       <c r="C23" t="n">
-        <v>3.770349793862744</v>
+        <v>0.4103449705536156</v>
       </c>
       <c r="D23" t="n">
-        <v>2.287552473542093</v>
+        <v>0.3540489228880782</v>
       </c>
       <c r="E23" t="n">
-        <v>131.0671021486739</v>
+        <v>20.28550902263962</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08426383237541692</v>
+        <v>0.2490354266757928</v>
       </c>
       <c r="G23" t="n">
-        <v>55.21966273929099</v>
+        <v>48.66948619274978</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4966219544620529</v>
+        <v>1.389482356750345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.849499792611579</v>
+        <v>1.090458452248131</v>
       </c>
       <c r="B24" t="n">
-        <v>5.550875822285386</v>
+        <v>4.89633343316776</v>
       </c>
       <c r="C24" t="n">
-        <v>4.099226429089412</v>
+        <v>0.4986918309601279</v>
       </c>
       <c r="D24" t="n">
-        <v>2.516406389346646</v>
+        <v>0.4615923419358534</v>
       </c>
       <c r="E24" t="n">
-        <v>144.1794656493171</v>
+        <v>26.44729304848396</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0852393560988849</v>
+        <v>0.2146854631153994</v>
       </c>
       <c r="G24" t="n">
-        <v>55.62554067770319</v>
+        <v>49.37673171577158</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5054571664380344</v>
+        <v>1.201433267746594</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.933567965003015</v>
+        <v>1.140024745532137</v>
       </c>
       <c r="B25" t="n">
-        <v>5.19717297865386</v>
+        <v>5.124488114291109</v>
       </c>
       <c r="C25" t="n">
-        <v>4.354517717464823</v>
+        <v>0.6121836239233854</v>
       </c>
       <c r="D25" t="n">
-        <v>2.748756226807013</v>
+        <v>0.5718509183381225</v>
       </c>
       <c r="E25" t="n">
-        <v>157.4921307063468</v>
+        <v>32.76464413145471</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08798337477530577</v>
+        <v>0.1862418540434732</v>
       </c>
       <c r="G25" t="n">
-        <v>56.03611747144383</v>
+        <v>49.98642542350215</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5245738312603175</v>
+        <v>1.045963956164891</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.01763613739445</v>
+        <v>1.189591038816143</v>
       </c>
       <c r="B26" t="n">
-        <v>4.794190228654484</v>
+        <v>5.338769262166212</v>
       </c>
       <c r="C26" t="n">
-        <v>4.521503485470212</v>
+        <v>0.7500913294870737</v>
       </c>
       <c r="D26" t="n">
-        <v>2.984716908351067</v>
+        <v>0.6845136217954565</v>
       </c>
       <c r="E26" t="n">
-        <v>171.0116818898515</v>
+        <v>39.2197415480939</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0924358163980175</v>
+        <v>0.1627685578666128</v>
       </c>
       <c r="G26" t="n">
-        <v>56.45991152117622</v>
+        <v>50.51534100483029</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5534212579050094</v>
+        <v>0.9177098192681521</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.101704309785886</v>
+        <v>1.239157332100149</v>
       </c>
       <c r="B27" t="n">
-        <v>4.363336590505845</v>
+        <v>5.536187717472704</v>
       </c>
       <c r="C27" t="n">
-        <v>4.589653951407689</v>
+        <v>0.9112151920677379</v>
       </c>
       <c r="D27" t="n">
-        <v>3.224486150930555</v>
+        <v>0.7993118307632424</v>
       </c>
       <c r="E27" t="n">
-        <v>184.7494475467046</v>
+        <v>45.79719441760891</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09842393358062916</v>
+        <v>0.1434126211503151</v>
       </c>
       <c r="G27" t="n">
-        <v>56.90515187563724</v>
+        <v>50.97759384723308</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5907128201634866</v>
+        <v>0.811903597327953</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.185772482177321</v>
+        <v>1.288723625384155</v>
       </c>
       <c r="B28" t="n">
-        <v>3.928624199446666</v>
+        <v>5.713850617820639</v>
       </c>
       <c r="C28" t="n">
-        <v>4.553536357730524</v>
+        <v>1.093892063697607</v>
       </c>
       <c r="D28" t="n">
-        <v>3.468349337042556</v>
+        <v>0.9160159569067172</v>
       </c>
       <c r="E28" t="n">
-        <v>198.7217788895355</v>
+        <v>52.48384829739239</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1056200757062479</v>
+        <v>0.127436068491137</v>
       </c>
       <c r="G28" t="n">
-        <v>57.37923550233661</v>
+        <v>51.38487700211298</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6341878382695249</v>
+        <v>0.7244857453629551</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.269840654568756</v>
+        <v>1.33828991866816</v>
       </c>
       <c r="B29" t="n">
-        <v>3.515494599865324</v>
+        <v>5.869034235756909</v>
       </c>
       <c r="C29" t="n">
-        <v>4.41352465299417</v>
+        <v>1.296013290471854</v>
       </c>
       <c r="D29" t="n">
-        <v>3.716680386611517</v>
+        <v>1.034431071277191</v>
       </c>
       <c r="E29" t="n">
-        <v>212.950099951891</v>
+        <v>59.26853458137948</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1135050983033536</v>
+        <v>0.1142214987200574</v>
       </c>
       <c r="G29" t="n">
-        <v>57.88798115719361</v>
+        <v>51.74678771543969</v>
       </c>
       <c r="H29" t="n">
-        <v>0.680346612177995</v>
+        <v>0.652093866794313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.353908826960192</v>
+        <v>1.387856211952166</v>
       </c>
       <c r="B30" t="n">
-        <v>3.149451167033992</v>
+        <v>5.999252808700528</v>
       </c>
       <c r="C30" t="n">
-        <v>4.176266252100802</v>
+        <v>1.515052256980205</v>
       </c>
       <c r="D30" t="n">
-        <v>3.969936287696547</v>
+        <v>1.154392318427183</v>
       </c>
       <c r="E30" t="n">
-        <v>227.4605942208459</v>
+        <v>66.14180774819981</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1213032670627532</v>
+        <v>0.1032633650338328</v>
       </c>
       <c r="G30" t="n">
-        <v>58.43470700623153</v>
+        <v>52.07116985127038</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7241134161364633</v>
+        <v>0.5919916996650573</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.437976999351627</v>
+        <v>1.437422505236172</v>
       </c>
       <c r="B31" t="n">
-        <v>2.854530704112319</v>
+        <v>6.102322325676885</v>
       </c>
       <c r="C31" t="n">
-        <v>3.854861112030688</v>
+        <v>1.748100793252761</v>
       </c>
       <c r="D31" t="n">
-        <v>4.228642477455915</v>
+        <v>1.275760573572045</v>
       </c>
       <c r="E31" t="n">
-        <v>242.2833670279683</v>
+        <v>73.0956965348673</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1279429716327334</v>
+        <v>0.09415321046480077</v>
       </c>
       <c r="G31" t="n">
-        <v>59.01899469609997</v>
+        <v>52.36443155137147</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7589569304062707</v>
+        <v>0.5419765738292937</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.522045171743063</v>
+        <v>1.486988798520178</v>
       </c>
       <c r="B32" t="n">
-        <v>2.651649749240133</v>
+        <v>6.176418348764081</v>
       </c>
       <c r="C32" t="n">
-        <v>3.468702256553343</v>
+        <v>1.991913682475593</v>
       </c>
       <c r="D32" t="n">
-        <v>4.493363750609871</v>
+        <v>1.398418561725326</v>
       </c>
       <c r="E32" t="n">
-        <v>257.4507787270198</v>
+        <v>80.12348157961597</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1322174128970232</v>
+        <v>0.08656364545549221</v>
       </c>
       <c r="G32" t="n">
-        <v>59.63526419271231</v>
+        <v>52.6318209644691</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7782211024297938</v>
+        <v>0.5002866077464869</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.606113344134498</v>
+        <v>1.536555091804184</v>
       </c>
       <c r="B33" t="n">
-        <v>2.556870761838975</v>
+        <v>6.220127016985905</v>
       </c>
       <c r="C33" t="n">
-        <v>3.042913239479592</v>
+        <v>2.242960486699028</v>
       </c>
       <c r="D33" t="n">
-        <v>4.764654834523268</v>
+        <v>1.522267511475746</v>
       </c>
       <c r="E33" t="n">
-        <v>272.9946128547869</v>
+        <v>87.21950369744289</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1331657183642911</v>
+        <v>0.08023343130217646</v>
       </c>
       <c r="G33" t="n">
-        <v>60.27212261056529</v>
+        <v>52.87765647278232</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7773977939521493</v>
+        <v>0.465517405785213</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.690181516525934</v>
+        <v>1.58612138508819</v>
       </c>
       <c r="B34" t="n">
-        <v>2.579659282206069</v>
+        <v>6.232488439550893</v>
       </c>
       <c r="C34" t="n">
-        <v>2.607298700175755</v>
+        <v>2.497483846767799</v>
       </c>
       <c r="D34" t="n">
-        <v>5.042993603000689</v>
+        <v>1.647224335593366</v>
       </c>
       <c r="E34" t="n">
-        <v>288.9422495634121</v>
+        <v>94.37900234074102</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1304735512202572</v>
+        <v>0.07495459630273922</v>
       </c>
       <c r="G34" t="n">
-        <v>60.9135487801712</v>
+        <v>53.10551455643969</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7561607848470073</v>
+        <v>0.4365514936936991</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.774249688917369</v>
+        <v>1.635687678372196</v>
       </c>
       <c r="B35" t="n">
-        <v>2.721259644035249</v>
+        <v>6.213031752214294</v>
       </c>
       <c r="C35" t="n">
-        <v>2.19471091431285</v>
+        <v>2.751563328242428</v>
       </c>
       <c r="D35" t="n">
-        <v>5.328713493480911</v>
+        <v>1.773219292123009</v>
       </c>
       <c r="E35" t="n">
-        <v>305.3127934108689</v>
+        <v>101.5979815898238</v>
       </c>
       <c r="F35" t="n">
-        <v>0.124692121425702</v>
+        <v>0.07056175693058368</v>
       </c>
       <c r="G35" t="n">
-        <v>61.54200744973018</v>
+        <v>53.3183810685365</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7188084172181051</v>
+        <v>0.4125004584394242</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.858317861308804</v>
+        <v>1.685253971656202</v>
       </c>
       <c r="B36" t="n">
-        <v>2.97340652282734</v>
+        <v>6.161801193989348</v>
       </c>
       <c r="C36" t="n">
-        <v>1.838759660587271</v>
+        <v>3.001183791130577</v>
       </c>
       <c r="D36" t="n">
-        <v>5.621959216108945</v>
+        <v>1.9001940653762</v>
       </c>
       <c r="E36" t="n">
-        <v>322.1145356777193</v>
+        <v>108.8731002018623</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1169767675883508</v>
+        <v>0.06692347002411163</v>
       </c>
       <c r="G36" t="n">
-        <v>62.14261840883096</v>
+        <v>53.5187721829729</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6723129323895343</v>
+        <v>0.3926583553202213</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.94238603370024</v>
+        <v>1.734820264940208</v>
       </c>
       <c r="B37" t="n">
-        <v>3.317681022258706</v>
+        <v>6.079372664558288</v>
       </c>
       <c r="C37" t="n">
-        <v>1.570889519372012</v>
+        <v>3.242307168521426</v>
       </c>
       <c r="D37" t="n">
-        <v>5.922687547998971</v>
+        <v>2.028100204837788</v>
       </c>
       <c r="E37" t="n">
-        <v>339.3449998750272</v>
+        <v>116.201582166823</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1085890655405973</v>
+        <v>0.06393531488305863</v>
       </c>
       <c r="G37" t="n">
-        <v>62.70606642599869</v>
+        <v>53.70883078303407</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6237659816627943</v>
+        <v>0.3764645064886279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.026454206091675</v>
+        <v>1.784386558224214</v>
       </c>
       <c r="B38" t="n">
-        <v>3.725852229140227</v>
+        <v>5.966860345315761</v>
       </c>
       <c r="C38" t="n">
-        <v>1.417020713611127</v>
+        <v>3.470946455624952</v>
       </c>
       <c r="D38" t="n">
-        <v>6.230710433113427</v>
+        <v>2.156897864677502</v>
       </c>
       <c r="E38" t="n">
-        <v>356.9934111855286</v>
+        <v>123.5811444868002</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1006095113989685</v>
+        <v>0.06151438222532202</v>
       </c>
       <c r="G38" t="n">
-        <v>63.22911296700294</v>
+        <v>53.89040320354314</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5788777966463297</v>
+        <v>0.3634738175124674</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.110522378483111</v>
+        <v>1.83395285150822</v>
       </c>
       <c r="B39" t="n">
-        <v>4.161461995673347</v>
+        <v>5.825913106914953</v>
       </c>
       <c r="C39" t="n">
-        <v>1.394141141623046</v>
+        <v>3.68324064201669</v>
       </c>
       <c r="D39" t="n">
-        <v>6.545758130508704</v>
+        <v>2.286554793524038</v>
       </c>
       <c r="E39" t="n">
-        <v>375.0443145915927</v>
+        <v>131.0099392943347</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09375650640996631</v>
+        <v>0.05959486852021711</v>
       </c>
       <c r="G39" t="n">
-        <v>63.7137239788703</v>
+        <v>54.06510032198544</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5412830821263971</v>
+        <v>0.3533329153068263</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.194590550874546</v>
+        <v>1.883519144792226</v>
       </c>
       <c r="B40" t="n">
-        <v>4.58272125249364</v>
+        <v>5.658700580296237</v>
       </c>
       <c r="C40" t="n">
-        <v>1.507366501223322</v>
+        <v>3.875529270204459</v>
       </c>
       <c r="D40" t="n">
-        <v>6.867545168841228</v>
+        <v>2.417045531416459</v>
       </c>
       <c r="E40" t="n">
-        <v>393.4813537900607</v>
+        <v>138.4865078411183</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08841549769093277</v>
+        <v>0.05812451108353763</v>
       </c>
       <c r="G40" t="n">
-        <v>64.16532576888702</v>
+        <v>54.23434613780611</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5130673122444819</v>
+        <v>0.3457606568988025</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.278658723265981</v>
+        <v>1.933085438076232</v>
       </c>
       <c r="B41" t="n">
-        <v>4.946549091734557</v>
+        <v>5.467888932656214</v>
       </c>
       <c r="C41" t="n">
-        <v>1.748008656521776</v>
+        <v>4.044425275821681</v>
       </c>
       <c r="D41" t="n">
-        <v>7.195823613162205</v>
+        <v>2.548350777370628</v>
       </c>
       <c r="E41" t="n">
-        <v>412.2903231547731</v>
+        <v>146.0097442622194</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08487035360205732</v>
+        <v>0.05706164420218572</v>
       </c>
       <c r="G41" t="n">
-        <v>64.59120124730821</v>
+        <v>54.39941622759369</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3494307678441415</v>
+        <v>0.3405318729856188</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.362726895657417</v>
+        <v>1.982651731360238</v>
       </c>
       <c r="B42" t="n">
-        <v>5.213361715517289</v>
+        <v>5.256606560508605</v>
       </c>
       <c r="C42" t="n">
-        <v>2.093103378741018</v>
+        <v>4.186884760617315</v>
       </c>
       <c r="D42" t="n">
-        <v>7.530420312772146</v>
+        <v>2.680456896306347</v>
       </c>
       <c r="E42" t="n">
-        <v>431.4613018814293</v>
+        <v>153.5788673250894</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.05637271601609151</v>
       </c>
       <c r="G42" t="n">
-        <v>65.00000064773005</v>
+        <v>54.56146783983598</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.782394647514879e-17</v>
+        <v>0.33746365301904</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2.032218024644243</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5.028400084557782</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.300272369828683</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.81335553806445</v>
+      </c>
+      <c r="E43" t="n">
+        <v>161.1933986008498</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.05603019312463167</v>
+      </c>
+      <c r="G43" t="n">
+        <v>54.72156293777103</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.3364040822489744</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2.081784317928249</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.787181201138738</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.382420990453982</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.947043344196896</v>
+      </c>
+      <c r="E44" t="n">
+        <v>168.8531456646021</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.05601089299493724</v>
+      </c>
+      <c r="G44" t="n">
+        <v>54.88068529144736</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.3372239090532527</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2.131350611212255</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.53716510813212</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.431684555350177</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.081521720989181</v>
+      </c>
+      <c r="E45" t="n">
+        <v>176.5581890905701</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.05629486127527845</v>
+      </c>
+      <c r="G45" t="n">
+        <v>55.03975283392472</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.3398115796867712</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2.180916904496261</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.28280137555714</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.446982827772453</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.216796661154857</v>
+      </c>
+      <c r="E46" t="n">
+        <v>184.3088722359481</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.05686482488138776</v>
+      </c>
+      <c r="G46" t="n">
+        <v>55.19962682911299</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.3440709792900054</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2.230483197780267</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.028698269407295</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.427837148531704</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.352878602862149</v>
+      </c>
+      <c r="E47" t="n">
+        <v>192.1057931637212</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.05770597736557237</v>
+      </c>
+      <c r="G47" t="n">
+        <v>55.36111948640924</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.3499197717330526</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2.280049491064273</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.779541660279095</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.374396249247218</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.489782322012348</v>
+      </c>
+      <c r="E48" t="n">
+        <v>199.9497984706719</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.05880564395120717</v>
+      </c>
+      <c r="G48" t="n">
+        <v>55.52500096579622</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3572859225706825</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.329615784348279</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.540009756359363</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.287451366745756</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.627526857986792</v>
+      </c>
+      <c r="E49" t="n">
+        <v>207.8419790329955</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.06015247157823447</v>
+      </c>
+      <c r="G49" t="n">
+        <v>55.69200543165901</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.3661010773921919</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.379182077632285</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.314684994523038</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.168440034125632</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.766135471080514</v>
+      </c>
+      <c r="E50" t="n">
+        <v>215.7836675674276</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.06173504923283153</v>
+      </c>
+      <c r="G50" t="n">
+        <v>55.86283480637999</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3762907171962835</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.428748370916291</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.107964503630692</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.019438073622252</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.905635622505828</v>
+      </c>
+      <c r="E51" t="n">
+        <v>223.7764374855339</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0635400227953358</v>
+      </c>
+      <c r="G51" t="n">
+        <v>56.03815860575368</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.3877615492862258</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.478314664200297</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2.923970618875887</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.843139474758082</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.046058958619533</v>
+      </c>
+      <c r="E52" t="n">
+        <v>231.8221019899962</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.06554979222426423</v>
+      </c>
+      <c r="G52" t="n">
+        <v>56.21860842068384</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.4003866337929532</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2.527880957484303</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.766462973235199</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.642824005676504</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.18744127207253</v>
+      </c>
+      <c r="E53" t="n">
+        <v>239.9227118486487</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.06773987006510183</v>
+      </c>
+      <c r="G53" t="n">
+        <v>56.40476585902281</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.4139888286430726</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2.577447250768309</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.638753721275031</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.422312571613707</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.32982240416213</v>
+      </c>
+      <c r="E54" t="n">
+        <v>248.0805497996774</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.07007601543307188</v>
+      </c>
+      <c r="G54" t="n">
+        <v>56.59714298573574</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.4283235566621569</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2.627013544052315</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.543627463803889</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.185910497324576</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.473246044551639</v>
+      </c>
+      <c r="E55" t="n">
+        <v>256.2981190763983</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.07251136075407169</v>
+      </c>
+      <c r="G55" t="n">
+        <v>56.79615462374965</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.4430627107594992</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2.676579837336321</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.483267443897359</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.938339066045506</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.617759377135995</v>
+      </c>
+      <c r="E56" t="n">
+        <v>264.5781231168523</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.07498391421024933</v>
+      </c>
+      <c r="G56" t="n">
+        <v>57.00208249492076</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.4577826165324781</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2.726146130620327</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.459189583125101</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.68465579460387</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.763412515741657</v>
+      </c>
+      <c r="E57" t="n">
+        <v>272.9234332317907</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.07741502169074757</v>
+      </c>
+      <c r="G57" t="n">
+        <v>57.21503226809855</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.4719601106031057</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2.775712423904332</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.472185931091478</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.430164064820263</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.910257673357562</v>
+      </c>
+      <c r="E58" t="n">
+        <v>281.3370410051155</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.07970955113483796</v>
+      </c>
+      <c r="G58" t="n">
+        <v>57.43488623922328</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.4849815119382187</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2.825278717188338</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2.522279122377242</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.180312873557262</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.058348017541451</v>
+      </c>
+      <c r="E59" t="n">
+        <v>289.821992713492</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.08175862570485926</v>
+      </c>
+      <c r="G59" t="n">
+        <v>57.66125653494663</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.4961689189950702</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2.874845010472344</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.608689481661424</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.940587623745878</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.207736186717709</v>
+      </c>
+      <c r="E60" t="n">
+        <v>298.381304316478</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.08344556046986236</v>
+      </c>
+      <c r="G60" t="n">
+        <v>57.89344607829806</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.5048261990335644</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2.92441130375635</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2.729816492942601</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.716393081602539</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.358472480386714</v>
+      </c>
+      <c r="E61" t="n">
+        <v>307.0178577631565</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.08465515004991356</v>
+      </c>
+      <c r="G61" t="n">
+        <v>58.13042641417287</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.5103029609978128</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2.973977597040356</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.883236442365743</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.5129299038337</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5.510602790647758</v>
+      </c>
+      <c r="E62" t="n">
+        <v>315.7342824771301</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.08528561394258512</v>
+      </c>
+      <c r="G62" t="n">
+        <v>58.37084191116753</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.5120693006983313</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3.023543890324362</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.065718126406431</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.335066527675227</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.664166407084727</v>
+      </c>
+      <c r="E63" t="n">
+        <v>324.5328295857342</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.08526151836314788</v>
+      </c>
+      <c r="G63" t="n">
+        <v>58.6130478874184</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.5097888627441304</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3.073110183608368</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.27325853374319</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.187208741572057</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.819193889243134</v>
+      </c>
+      <c r="E64" t="n">
+        <v>333.4152500219506</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.08454522853320064</v>
+      </c>
+      <c r="G64" t="n">
+        <v>58.8551854336836</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.5033750905731339</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.122676476892374</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.501140283112252</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.073169915318192</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.975705242647328</v>
+      </c>
+      <c r="E65" t="n">
+        <v>342.3826900178914</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.08314430277173485</v>
+      </c>
+      <c r="G65" t="n">
+        <v>59.09528876023084</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.4930171323242958</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3.17224277017638</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.744012243860207</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9960456242593365</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6.133708637772157</v>
+      </c>
+      <c r="E66" t="n">
+        <v>351.4356177072821</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.08111289204889637</v>
+      </c>
+      <c r="G66" t="n">
+        <v>59.33141354249582</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.4791676587877172</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3.221809063460386</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.995994107834276</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9580971616150367</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.293199866558994</v>
+      </c>
+      <c r="E67" t="n">
+        <v>360.5737919861232</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.07854646747889775</v>
+      </c>
+      <c r="G67" t="n">
+        <v>59.56176924138851</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.4624931005670625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3.271375356744392</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4.250804691189976</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.9606490626443352</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6.454162641151408</v>
+      </c>
+      <c r="E68" t="n">
+        <v>369.7962796289841</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.07557068120995569</v>
+      </c>
+      <c r="G68" t="n">
+        <v>59.78483644999879</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.4437953808133674</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3.320941650028398</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4.501912460195101</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.004006114368687</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.61656972096768</v>
+      </c>
+      <c r="E69" t="n">
+        <v>379.1015198655008</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.07232654020755311</v>
+      </c>
+      <c r="G69" t="n">
+        <v>59.99945260590434</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.4239210430869071</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3.370507943312404</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.742705306528438</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.087395266802756</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.780384732508513</v>
+      </c>
+      <c r="E70" t="n">
+        <v>388.4874286476775</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.06895498366390951</v>
+      </c>
+      <c r="G70" t="n">
+        <v>60.20485559792142</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.4036763109817258</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3.42007423659641</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.966675110475547</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.20893732746036</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.945564450675135</v>
+      </c>
+      <c r="E71" t="n">
+        <v>397.9515293597852</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.06558394720059847</v>
+      </c>
+      <c r="G71" t="n">
+        <v>60.40068357363283</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.3837633263102416</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3.469640529880416</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5.167611308069239</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.365652323825142</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.112061266043939</v>
+      </c>
+      <c r="E72" t="n">
+        <v>407.4910941827866</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.06231993795425975</v>
+      </c>
+      <c r="G72" t="n">
+        <v>60.58693801003524</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.3647448547266558</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3.519206823164422</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5.339796676304094</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.553501051675161</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7.279825579011889</v>
+      </c>
+      <c r="E73" t="n">
+        <v>417.103281268762</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.05924456760853469</v>
+      </c>
+      <c r="G73" t="n">
+        <v>60.76392285794016</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.3470361074854101</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3.568773116448428</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5.478197962356045</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.76746373442201</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7.448807926375891</v>
+      </c>
+      <c r="E74" t="n">
+        <v>426.785256584933</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.05641518238848098</v>
+      </c>
+      <c r="G74" t="n">
+        <v>60.93217384039596</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.3309166214087877</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3.618339409732434</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5.578643829712203</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.001655052194786</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.618960731476875</v>
+      </c>
+      <c r="E75" t="n">
+        <v>436.5342941895315</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.05386811723576628</v>
+      </c>
+      <c r="G75" t="n">
+        <v>61.09238954025565</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.3165534280706031</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3.667905703016439</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5.63798284202359</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.249473185524464</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7.79023964875941</v>
+      </c>
+      <c r="E76" t="n">
+        <v>446.3478532693911</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.05162312573001118</v>
+      </c>
+      <c r="G76" t="n">
+        <v>61.24537172940502</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.3040279478488894</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3.717471996300445</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.654214791909633</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.503779043482968</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7.96260453160285</v>
+      </c>
+      <c r="E77" t="n">
+        <v>456.2236335925871</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.04968790470935813</v>
+      </c>
+      <c r="G77" t="n">
+        <v>61.39197827869923</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.2933614723812656</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3.767038289584451</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5.626589539622946</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.757100560581745</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8.136020084848347</v>
+      </c>
+      <c r="E78" t="n">
+        <v>466.1596128954802</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.04806207178477908</v>
+      </c>
+      <c r="G78" t="n">
+        <v>61.53308891754733</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.2845364931690794</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3.816604582868457</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5.555668595581039</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.00185587775657</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8.310456274710091</v>
+      </c>
+      <c r="E79" t="n">
+        <v>476.1540703689009</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.04674031428173459</v>
+      </c>
+      <c r="G79" t="n">
+        <v>61.66958228939676</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.2775129167118735</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3.866170876152463</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5.443345911226725</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.230588385653022</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8.48588856571552</v>
+      </c>
+      <c r="E80" t="n">
+        <v>486.2056002338228</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.04571466492987115</v>
+      </c>
+      <c r="G80" t="n">
+        <v>61.80232195002112</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.2722392919526255</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3.915737169436469</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5.292825691352308</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.436206013783813</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8.662298043552839</v>
+      </c>
+      <c r="E81" t="n">
+        <v>496.3131187800079</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.04497598734327243</v>
+      </c>
+      <c r="G81" t="n">
+        <v>61.93214882862898</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.2686597171617112</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3.965303462720475</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5.108556467644887</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.612216805451409</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8.839671469028426</v>
+      </c>
+      <c r="E82" t="n">
+        <v>506.4758674575372</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.04451480892978266</v>
+      </c>
+      <c r="G82" t="n">
+        <v>62.05987790764643</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.2667173003171956</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4.014869756004481</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.896122137367507</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.752952731599657</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9.018001294688172</v>
+      </c>
+      <c r="E83" t="n">
+        <v>516.6934138291444</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.04432165427323375</v>
+      </c>
+      <c r="G83" t="n">
+        <v>62.18629726791178</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.2663550692701815</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>4.064436049288487</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.66209213095506</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.853773868707953</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9.197285663571105</v>
+      </c>
+      <c r="E84" t="n">
+        <v>526.965651498803</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.04438702466048711</v>
+      </c>
+      <c r="G84" t="n">
+        <v>62.31216808065551</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.2675150870417186</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4.114002342572493</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.413834284962817</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.911245492075715</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9.377528399744929</v>
+      </c>
+      <c r="E85" t="n">
+        <v>537.2927995694531</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.04470113072138965</v>
+      </c>
+      <c r="G85" t="n">
+        <v>62.43822454133833</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.2701361506726817</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>4.163568635856499</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.159295319756676</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.923281304513462</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9.558738992882612</v>
+      </c>
+      <c r="E86" t="n">
+        <v>547.6754017593047</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0452533996111838</v>
+      </c>
+      <c r="G86" t="n">
+        <v>62.56517304420284</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.2741498659967798</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>4.213134929140505</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.906755014641905</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.889246911881818</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.740932573578885</v>
+      </c>
+      <c r="E87" t="n">
+        <v>558.1143249875773</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.04603166916519205</v>
+      </c>
+      <c r="G87" t="n">
+        <v>62.69368995725309</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.279474392161204</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4.262701222424511</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.664561201620586</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.810018744394004</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9.924129870628802</v>
+      </c>
+      <c r="E88" t="n">
+        <v>568.6107569267421</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.04702092301617907</v>
+      </c>
+      <c r="G88" t="n">
+        <v>62.82441710868238</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.286005117994439</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4.312267515708517</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.4408535337234</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.687994874133705</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10.10835713363472</v>
+      </c>
+      <c r="E89" t="n">
+        <v>579.1662015682275</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.04820146568007956</v>
+      </c>
+      <c r="G89" t="n">
+        <v>62.95795368111082</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.2936020560454253</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4.361833808992523</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.243284602608945</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.527055559335828</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10.29364599250626</v>
+      </c>
+      <c r="E90" t="n">
+        <v>589.7824711723622</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.04954656375994477</v>
+      </c>
+      <c r="G90" t="n">
+        <v>63.0948429231772</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.3020746272245423</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>4.411400102276529</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.078747367369991</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.332472816500656</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10.48003321028095</v>
+      </c>
+      <c r="E91" t="n">
+        <v>600.4616721060377</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.05101974662098175</v>
+      </c>
+      <c r="G91" t="n">
+        <v>63.23555216229261</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.3111656181839611</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4.460966395560535</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2.953118004633163</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.110769842213671</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10.66756026972672</v>
+      </c>
+      <c r="E92" t="n">
+        <v>611.2061811567791</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0525721611703984</v>
+      </c>
+      <c r="G92" t="n">
+        <v>63.38044515147512</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.3205374258791389</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4.510532688844541</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2.871023201426391</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.869532637629014</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10.85627272103219</v>
+      </c>
+      <c r="E93" t="n">
+        <v>622.0186081581509</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.05414061671680115</v>
+      </c>
+      <c r="G93" t="n">
+        <v>63.52974690391917</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.3297651589223349</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4.560098982128546</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.835640600365662</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.617177694876593</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11.0462192123741</v>
+      </c>
+      <c r="E94" t="n">
+        <v>632.90174044536</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.05564719913912621</v>
+      </c>
+      <c r="G94" t="n">
+        <v>63.68350297508428</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.3383422782905694</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4.609665275412553</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2.848540594149843</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.362681062777482</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11.23745013369993</v>
+      </c>
+      <c r="E95" t="n">
+        <v>643.8584651497288</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.05700146412633004</v>
+      </c>
+      <c r="G95" t="n">
+        <v>63.8415376490469</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.3457043415099846</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4.659231568696558</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.909576978321341</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.115275514341892</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.43001583414141</v>
+      </c>
+      <c r="E96" t="n">
+        <v>654.8916670640062</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.05810605734944244</v>
+      </c>
+      <c r="G96" t="n">
+        <v>64.00341835352</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.3512740153940381</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4.708797861980565</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.016833122713875</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.884123908075536</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11.62396443107387</v>
+      </c>
+      <c r="E97" t="n">
+        <v>666.0041031107197</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.05886598509220777</v>
+      </c>
+      <c r="G97" t="n">
+        <v>64.16843603582087</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.3545252677144136</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>4.75836415526457</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.166629299623427</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.677978204815017</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11.8193393138854</v>
+      </c>
+      <c r="E98" t="n">
+        <v>677.1982593186838</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.05920064658610113</v>
+      </c>
+      <c r="G98" t="n">
+        <v>64.33561186686815</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.3550576158693257</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4.807930448548576</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.353595550051145</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.504835007459439</v>
+      </c>
+      <c r="D99" t="n">
+        <v>12.01617654654664</v>
+      </c>
+      <c r="E99" t="n">
+        <v>688.4762020012075</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.05905651259997557</v>
+      </c>
+      <c r="G99" t="n">
+        <v>64.50373811628138</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.3525953957637942</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4.857496741832582</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.570812862013833</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.371599933348914</v>
+      </c>
+      <c r="D100" t="n">
+        <v>12.21450246436171</v>
+      </c>
+      <c r="E100" t="n">
+        <v>699.8394400600693</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0583948915744184</v>
+      </c>
+      <c r="G100" t="n">
+        <v>64.67145503390691</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.3472628188244216</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4.907063035116588</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.810023320929821</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.283774527373467</v>
+      </c>
+      <c r="D101" t="n">
+        <v>12.41433180866445</v>
+      </c>
+      <c r="E101" t="n">
+        <v>711.288818111483</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.05729265168990413</v>
+      </c>
+      <c r="G101" t="n">
+        <v>64.83729298790664</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.1672701220487902</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>4.956629328400594</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.061907128805982</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.245180578114963</v>
+      </c>
+      <c r="D102" t="n">
+        <v>12.61566613356475</v>
+      </c>
+      <c r="E102" t="n">
+        <v>722.8244251993858</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.212043016393263e-26</v>
+      </c>
+      <c r="G102" t="n">
+        <v>65.00000064741765</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.873081839836726e-16</v>
       </c>
     </row>
   </sheetData>
